--- a/관련 폴더/어플리케이션 요구사항.xlsx
+++ b/관련 폴더/어플리케이션 요구사항.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E40C02-D2D8-4C27-99E3-50E4FCB39671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941633B6-72E5-4A53-9391-387A39BEB30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="410" yWindow="120" windowWidth="15080" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="20100" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -616,7 +616,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/관련 폴더/어플리케이션 요구사항.xlsx
+++ b/관련 폴더/어플리케이션 요구사항.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941633B6-72E5-4A53-9391-387A39BEB30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA10C75-4387-4450-ABC5-6BE523A9CBE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="20100" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -307,8 +307,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1511300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>156810</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
@@ -337,8 +337,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1511300" y="2531710"/>
-          <a:ext cx="5099050" cy="9074420"/>
+          <a:off x="1511300" y="3302000"/>
+          <a:ext cx="5099050" cy="8304130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
